--- a/uploads/media/twitter/user_tweets.xlsx
+++ b/uploads/media/twitter/user_tweets.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,25 +373,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>User Screen Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tweet Id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tweet Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tweet Text</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Retweet Count</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Like Count</t>
         </is>
@@ -400,147 +405,1716 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1060017097596489728</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>43411.16138888889</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>b'RT @LisaChaMD: Overall it\xe2\x80\x99s looking like a good night for women. So far, 48 women have been elected to the U.S. House (that number could hi\xe2\x80\xa6'</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1061951805599481856</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>43416.50017361111</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>b'#NittoATPFinals All the way from FLORIDA \xe2\x98\x80\xef\xb8\x8f\xe2\x98\x80\xef\xb8\x8ffor the ATP finals \xf0\x9f\x8e\xbe!!! https://t.co/PwWO0hxJpc'</t>
+        </is>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>936472580894048256</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>43070.24347222222</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>b'RT @StanfordChild: This day marks a special occasion as we dedicate the expansion of the new Lucile Packard Children\xe2\x80\x99s Hospital Stanford. E\xe2\x80\xa6'</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>27</v>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1061706284678987776</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>43415.82266203704</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>b'#NittoATPFinals  Lets Go Roger from your Florida Fan Group !\xf0\x9f\x8e\xbe https://t.co/gCI4JYwhlV'</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>679762181873876992</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>42361.85773148148</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>b'@senfeinstein Thanks for increasing research funding in 2016! @NIDDKgov @NIH @VAResearch @ASNAdvocacy https://t.co/BQRrdwYVIo'</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1061675765304037381</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>43415.73844907407</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>b'#NikkoATPFinals we came all the way from Florida to see Roger continue his magic ! \xf0\x9f\x8e\xbe https://t.co/RW0uFfKSEQ'</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>679762181022478337</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>42361.85771990741</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>b'@RepAnnaEshoo Thanks for increasing research funding in 2016! @NIDDKgov @NIH @VAResearch @ASNAdvocacy https://t.co/BQRrdwYVIo'</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1061607648032894976</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>43415.55047453703</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>b'Another ATP final off our bucket list  #NittoATPFinals https://t.co/4kaaBh1f5D'</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>679762179508297728</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>42361.85771990741</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>b'@SenatorBoxer Thanks for increasing research funding in 2016! @NIDDKgov @NIH @VAResearch @ASNAdvocacy https://t.co/BQRrdwYVIo'</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>976535051285430272</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>43180.79483796296</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>b'Can\xe2\x80\x99t decide the winner of the animal house region. Let the contestants help you decide!  #NephMadness https://t.co/XFCWU7zYcB'</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>567459455852236800</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>42051.96123842592</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>b'RT @ASPNeph: A #checklist for hemodialysis? #CJKHD\n  http://t.co/Laby6SVnrE http://t.co/Tyt3GEBnV6 @CSNSCN'</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>974841018670632963</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>43176.12019675926</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>b'#NephMadness -  better start making your picks now !! https://t.co/l1uoHjk8J9'</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>401198614288293889</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>41593.16872685185</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>b'RT @CHOP_Research: On @HuffPostImpact, CHOP #safety expert @safetymd blogs about "situation awareness" and safe driving http://t.co/i5CwxwN\xe2\x80\xa6'</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>974775417755365378</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>43175.93916666666</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>b'@Nephro_Sparks Clearly the most important part of the entire experience https://t.co/SkmjcGaqun'</t>
+        </is>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>950802112514068480</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>43109.78545138889</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>b'@kidney_boy That would be us !\xf0\x9f\x98\x8a'</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>863477131673841667</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>42868.81440972222</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>b'RT @Nephro_Sparks: It was a pleasure having Aaron Kupin in the lab the last few years. Congrats on graduating from @DukeU https://t.co/cQUR\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>850130805636694016</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>42831.98556712963</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>b'@hswapnil @CityLittleRock @NephroRock @Nephro_Sparks @kidney_boy @kidneycon @gratefull080504 I could only pray thos\xe2\x80\xa6 https://t.co/J3tFZjwgou'</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>844218367267540992</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>42815.67034722222</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>b'Yes, there was a handshake and it even world leaders agree that peace and detente can only be achieved through\xe2\x80\xa6 https://t.co/iyOZN1MC5s'</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>839203567642771460</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>42801.83212962963</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>b'RT @kidney_boy: Great #NephMadness Intro video: https://t.co/UnIVedjO0e'</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>838965423785848832</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>42801.17497685185</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>b'CNN Fake Breaking News: #nephmadness heard discussed with Russia on wiretapping from Trump Tower. Photo and voice e\xe2\x80\xa6 https://t.co/Qiq8278Mru'</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>754103560393125888</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>42567.00085648148</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>b'@edgarvlermamd @ISNkidneycare @goKDIGO incr aff constriction is renoprotective?Just give nsaids\xf0\x9f\x98\xb1 increased fgf23, RAAS-study had 85% on acei'</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>717749652506943488</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>42466.6831712963</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>b"The final aria has sounded and the curtain has come down on this year's #nephmadness - a stunning victory ! https://t.co/uELnBNw2Q3"</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>713400624663105537</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>42454.6821412037</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>b'no respect #NephMadness for team cocaine but the blue ribbon panel knew better! How high will they go?All the way !! https://t.co/4GwRZYbDoI'</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>713146676672872448</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>42453.98138888889</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>b'#nephmadness what a disaster of a first round-I will never give up my job as TP neph because clearly I know nothing outside of TP med\xf0\x9f\x98\xb1\xf0\x9f\x86\x98\xf0\x9f\x91\x8e\xf0\x9f\x98\xa2'</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>712819992832573440</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>42453.07990740741</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>b'@abregman42 guess ill just hit the gym with a little anabolic help \xf0\x9f\x92\xaa\xf0\x9f\x92\xaa\xf0\x9f\x8f\x8b\xf0\x9f\x8f\x8b'</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>712812643631759360</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>42453.05962962963</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>b'#nephmadness picks made - time for a little pharm recreation ! Uh oh - what did i do?? Can anyone guess what I took? https://t.co/NJD8yaJKkB'</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>712802893976330240</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>42453.03271990741</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>b'Raise up thine eyes to the heavens ! The first round of #Nephmadness is about to be released - Let us bow and pray.. https://t.co/zpdnrjV1qc'</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>712606129440817152</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>42452.48975694444</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>b'@kidney_boy #nephmadness nephrologists dont waste time on low grade inefficient CRB receptor agonists - we go for reuptake inhibition -'</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>712430833819254784</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>42452.00603009259</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>b"Looks like an outstanding year for #nephmadness - 338 picks submitted-Hey ESPN, we've got game ! It's pure Ecstasy! https://t.co/O0JjZVRikv"</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>711010877005291520</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>42448.08769675926</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>b'@sayitmyway just dont tox screen me !'</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>710631151635857408</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>42447.03986111111</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>b"@sayitmyway #NephMadness  and I wasn't even doing any personal experimentation with the players in the bracket while I wrote it !"</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>709059420760596480</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>42442.70270833333</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>b"#nephmadness don't be despicable ! sign up now ! https://t.co/4fU5mRih1B"</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>708762333116366848</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>42441.88290509259</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>b'@HecmagsMD #nephmadness prove it ! Check the urine - nada - its all natural - just ask sharapova ! Anabolic steroids outmuscle the kidney !'</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>708498994729787392</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>42441.15622685185</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>b'@syrian_kidney #nephmadness ecstasy could be the sleeper of the tournament ! Dont let it daze you !'</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>708497885491548160</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>42441.15315972222</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>b'RT @syrian_kidney: RT RenalFellowNtwk: #ecstasy and kidney injury info graphic via drbokerjoker #nephmadness #nsmc https://t.co/sl5mtxEglu'</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>708395356740976641</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>42440.87024305556</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>b'#nephmadness  I hear a lot of trash talking but its time to make your choices - (watch out for recreational drugs!) https://t.co/IQKkjgSGs4'</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>708394532547616768</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>42440.86796296296</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>b"@nephondemand #nephmadness that's because everyone is personally trying out the recreational drugs and the kidney section to better judge"</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>708048768340348929</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>42439.91383101852</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>b'The Spectre of #nephmadness has spread across the world and is ready to create global domination ! Are you ready ? https://t.co/nb9Im91rxS'</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>708006417106599937</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>42439.79696759259</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>b'#nephmadness any team from recreational drugs and the kidney section will clearly will overdose their way into the final - total addiction'</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>707772318399893505</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>42439.15098379629</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>b'Almost time for #nephmadness - get ready to release the raptor in you and devour the competition ! https://t.co/VK0bvLUVxQ'</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>707325137184546816</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>42437.91699074074</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>b"Your mission if decide to accept it is to join #nephmadness and make your picks ! Don't go Rogue ! Are you with us? https://t.co/ReD8xoTs2q"</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>707202586349273088</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>42437.57881944445</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>b'@kidney_boy heard sanders was against the bailout of the prox tubl by the distal tubules-"if they cant acidify the urine they should fail"'</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>706962645090488322</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>42436.91670138889</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>b'inside out or however you look at it #nephmadness is an emotional journey of bipolar proportions - are you ready ? https://t.co/BmzmDdYVg3'</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>706687669762461700</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>42436.15791666666</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>b'The final countdown ! #nephmadness https://t.co/4vBCaM9QYq'</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>706675691778088960</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>42436.12486111111</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>b'Whether you are a Democrat - Republican - Liberal - Conservative or other  Get ready to cast your votes #nephmadness https://t.co/vIkaJzybOk'</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>618597053367595008</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>42193.07413194444</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>b'Is ASN involved at all with the RVU standards for nephro especially those of us in academia where it is tough to meet -   #AskASN'</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>618595475822804992</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>42193.06978009259</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>b'"All in ?" Basically everyone that applies gets in now \xf0\x9f\x98\x80#AskASN'</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>618593502092333057</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>42193.0643287037</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>b'My concern - fellowship applicants! Dismal job satisfaction by our peers in private practice and an uncertain manpower future  #AskASN'</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>618592336667410433</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>42193.06111111111</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>b"Warren kupin/ U Miami watching Wimbledon replay at the same time - shhhh don't know the results yet   #AskASN"</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>573696928266895360</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>42069.1733912037</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>b'In a world that worships the kidney, everyone enjoys playing #nephmadness It all started with a Big Bang ! http://t.co/hNKvxNvzlH'</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>572618558368137218</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>42066.19765046296</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>b"It's titillating, it's mesmerizing, it's scandalous !  The kidney bares all !  Don't be dominated ! #nephmadness http://t.co/0evhTG3i9g"</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>572237088118075392</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>42065.145</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>b'#Nephmadness The Final Frontier - on its mission to go where no Nephrologist has gone before !  It is only logical ! http://t.co/m3TsT7kj2C'</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>466381280142450689</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>41773.03861111111</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>b'#voicesave   \nChristina'</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>461311475148402688</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>41759.04862268519</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>b'#voicesavekat'</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>448657575018373120</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>41724.13050925926</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>b"@wkupin Even Homer and Bart have joined #nephmadness !Join the Simpsons - fill out your bracket ! It's now or never ! http://t.co/X9Mgh9ZqnO"</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>448312530532700163</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>41723.17836805555</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>b"@wkupin Don't you be stumped and lose on Wheel of Fortune! Everyone should know about #NephMadness Pass the word ! http://t.co/uAhEtghPzl"</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>447933619550449665</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>41722.1327662037</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>b'@wkupin  Warning! #NephMadness is on the loose! There is only one way to protect yourself-fill out your bracket NOW! http://t.co/NXw0PkcQbA'</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>447210853717135360</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>41720.13832175926</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>b"@wkupin #NephMadness It all began with a Big Bang !! It's just too logical to pass up ! http://t.co/fIaqBuOVmF"</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>447152911228100608</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>41719.97842592592</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>b'@medicalaxioms @kidney_boy @wkupin If we had a pediatric nephrology bracket then indeed you would be disqualified-otherwise its okay !'</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>446845120520810496</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>41719.12908564815</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>b"@wkupin  I was able to get a zoom lens closeup of the president's #NephMadness picks. Let's see who he chose ! http://t.co/iYyeOkxfHU"</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>446835665708519425</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>41719.10299768519</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>b"@amandasxi @kidney_boy the alternative   Solution to asian flush of course is .....This may be tough to hear ....ready ?......don't drink !"</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>446779579537973248</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>41718.94822916666</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>b"@wkupin  Is your Avatar ready for NephMadness ??? Don't delay !    \n#NephMadness http://t.co/NDPbPeFnKT"</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>446647448879239168</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>41718.58361111111</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>b'@kidney_boy @Nephro_Sparks @kdjhaveri I sent a mild threat last night !!!'</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>446484682901708800</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>41718.13446759259</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>b'@VeeraishChauhan @kidney_boy #nephmadness Actually "there will be urine" not "blood" -you need to be semantically correct for our specialty'</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>446407200546631680</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>41717.92065972222</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>b'@wkupin #Nephmadness ! Its the patriotic thing to do ! Do it for yourself,for your specialty,and for your country!!! http://t.co/N8lthwqDRj'</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>445925900094570496</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>41716.59252314815</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>b'This says it all! What are you waiting for?\n#NephMadness http://t.co/ByyTeVldg9'</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>445671759980036098</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>41715.89122685185</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>b'@wkupin CNN: Massive Nephrology consult delay and dialysis backlog nationwide! NJ Gov Cristie says "don\'t blame me , blame #NephMADNESS "'</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>445596038729330688</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>41715.68228009259</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>b'Crimea votes - join nephmadness 85%,join Russia 10% ,join Ukraine 5%-crises avoided!Obama thanks NKF for offering alternative  #NephMadness'</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>445391205942460417</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>41715.11704861111</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>b'@paulphel mass transfer like mass transit is too expensive, limited in availability and lacks the personal (electrolyte) approach -'</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>445350445020889090</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>41715.00456018518</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>b'@paulphel @eAJKD no good deed goes unpunished ! Sometimes the bad guys win ! #NephMADNESS'</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>445334754356121600</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>41714.96127314815</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>b"@wkupin Today's top story? not Crimea and Russian vote ! Not the NCAA ? Not the economy! Not Obamacare!  It's the first day of #NephMADNESS"</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>445333393635803136</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>41714.95751157407</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>b'@paulphel really - you must have a Black American Express Card with no limit  because you will need it !'</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>wkupin</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>445255789926944768</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>41714.74336805556</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>b'@wkupin Let the madness begin! Toxins all the way! No tubule will be spared - they leave everyone else as apoptotic debris  #NephMADNESS'</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
         <v>0</v>
       </c>
     </row>

--- a/uploads/media/twitter/user_tweets.xlsx
+++ b/uploads/media/twitter/user_tweets.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,6 +2118,1696 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1221453226475769857</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>43856.64024305555</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>b'RT @GlomCon: Join our *Computational Nephropathology* miniseries with \n@Renalpathsoc\n\nby Drs. Sarder and Tomaszewski on:\n\n"Applications of\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1218925558114979840</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>43849.66520833333</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>b'RT @ASNKidney: \xe2\x80\x9cTacrolimus monotherapy can be effective alternative treatment for patients wishing to avoid steroid therapy for minimal cha\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>25</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1217570704008327170</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>43845.9265162037</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>b'RT @VijayanMD: It is finally out! Lot of sweat and tears :-). Huge thank you to @HumphreysLab @WUNephrology @WUDeptMedicine and our wonderf\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>36</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1216014004931432448</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>43841.63084490741</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>b'RT @SaynaNorouzi: \xf0\x9f\x93\xa2Paging nephrology fellows #nephtwitter \n\n@Glomcon is now working on piloting a "hands-on" glomerular disease curriculum\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>18</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1215439606243561473</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>43840.04581018518</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>b'@WUNephrology @WUDeptMedicine @AST_info @womeninnephro @WUTransplant Congratulations, Ro!'</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1214903666538373122</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>43838.56689814815</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>b"RT @WUSTLmed: We've known it all along, but @Forbes agrees and has named #StLouis one of the best places to visit in 2020.\n\nhttps://t.co/zq\xe2\x80\xa6"</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>23</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1213468933526818822</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>43834.60778935185</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>b'@WUNephrology @frankjobrien84 @WUDeptMedicine @BarnesJewish Congratulations Frank!!'</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1213213484479111169</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>43833.90288194444</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>b'RT @VijayanMD: Largest multicenter study on CPI/AKI. Happy to represent \xe2\x81\xa6\xe2\x81\xa6@WUNephrology\xe2\x81\xa9 and collaborate with the group. #onconephrology. R\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>16</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1210942664461471745</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>43827.63662037037</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>b'RT @Nephro_Sparks: @haematognomist Here is a collection of many nephrology tweetorials at @RenalFellowNtwk \n\nhttps://t.co/exM9oeBFLX'</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1205839688235462657</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>43813.55508101852</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>b'RT @Proximal_Baxi: An amazing new collaboration between @RenalFellowNtwk and @GlomCon. Very exciting times as we continue to grow and expan\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1202318725350907904</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>43803.83907407407</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>b'RT @WUNephrology: Looking forward \xf0\x9f\x92\xaf to welcoming our wonderful new fellows to @WUSTLmed @WUDeptMedicine and @in_thestl! \xf0\x9f\x92\xab https://t.co/Of6X\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1199909799879729152</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>43797.19171296297</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>b'.@WUNephrology fellows enjoying an early Thanksgiving lunch in their new office! Very grateful for our wonderful fe\xe2\x80\xa6 https://t.co/WdFO8wgix7'</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1194399894901084166</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>43781.98726851852</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>b'RT @WUSTL_Rheum: Our second-year fellow, #DrIrisLee, presenting her abstract on \xe2\x80\x9dChoroidal Thickness: A Non-Invasive Biomarker for SLE Flar\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1185246622525120512</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>43756.72905092593</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>b'RT @Charbel_Khoury: Years of experience distilled into a 30min talk on \xe2\x80\x9cThe daily life of a dialysis medical director\xe2\x80\x9d by @NephroMaven http\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1185220014154141699</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>43756.655625</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>b'Awesome talk by @agargspi on the business aspect of nephrology \xe2\x80\x9cLet\xe2\x80\x99s Talk Numbers!\xe2\x80\x9d Thank you @agargspi for partic\xe2\x80\xa6 https://t.co/6brocJSeNP'</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1185198449739927558</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>43756.59611111111</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>b'Thank you, Dr. Brown!  @WUDeptMedicine @WUSTLmed https://t.co/KPqZavNQgX'</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1180530485384155136</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>43743.71498842593</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>b'RT @VijayanMD: 3rd annual Nephrology meeting coming to a close. A great partnership!@nefroigss @WUNephrology @WUSTLmed @ISNkidneycare \nThan\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1180525373727105024</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>43743.70087962963</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>b'@visanpolo @KarenAnleu @ISNeducation @WUNephrology @nefroigss Amazing presentation!!'</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1180509827182813185</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>43743.65798611111</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>b'RT @visanpolo: Nuestro Residente Celso Mazariegos @feliknche y nefropatologo Werner de Leon presentan caso de Nefropatia Membranosa con Sem\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1180228775876927490</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>43742.88243055555</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>b'Great talk on recurrent FSGS after renal transplantation by @TransplantPulse.  #PorLaSaludRenal @nefroigss https://t.co/fIFvCK0Z6q'</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1180196580357529600</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>43742.79358796297</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>b'Fantastic onconephrolgy talk in Spanish by @NephroMaven! #PorLaSaludRenal @nefroigss @WUNephrology https://t.co/f83OokLiF4'</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1162930085235744769</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>43695.14714120371</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>b'RT @GlomCon: A must for all nephrology trainees!\n- and those beyond\n\nThe Mozart of Urine Microscopy \n\nDr. Jay R. Seltzer @jrseltzer \n\non th\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>45</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1156898808967716865</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>43678.50398148148</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>b'RT @Nephcure: Join us for the next Clinical Trial Conference Series, focusing on #IgAN, on Aug 6th. Doctors will review the current underst\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>14</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1153659520478076929</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>43669.56525462963</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>b'RT @GlomCon: We are delighted to have \n\nDr. Michelle Rheault @rheault_m   \n\nspeak at our upcoming #glomcon session about \n\nInherited Disord\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>27</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1146185591593340929</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>43648.94113425926</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>b'@jeffsparks @NIH_NIAMS @BrighamResearch Congratulations!!'</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1145890930697940993</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>43648.12803240741</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>b'RT @LaurenceHBeckJ1: Coming soon to a NEJM near you ... Finally!!  (The mail comes early in Boston - stay tuned for the July 4 issue, 10 ye\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>106</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1145113461866844163</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>43645.98262731481</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>b'RT @GlomCon: Together with @Nephcure &amp;amp; endorsed by #KidneyHealthInitiative &amp;amp; @ASNKidney we are thrilled to introduce a new series on clin.\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>23</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1143071795685314566</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>43640.34869212963</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>b'RT @GlomCon: This coming Tuesday we look forward to learn more about an important topic in nephropathology:\n\nKidney Transplant Rejection by\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>29</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1140252806412144641</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>43632.56976851852</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>b'RT @ChangUCanSpare: The desired immunologic response from CPIs against cancers can injure innocent bystanders, such as kidneys, beyond just\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>15</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1139964395298197504</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>43631.77391203704</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>b'@Nephro_Sparks @WUNephrology @WUDeptMedicine @miraie_wardi Thank you.  Humbled and deeply honored to receive this award.'</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1139963719914577921</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>43631.77203703704</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>b'@VijayanMD Thank you!'</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1138417425081389061</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>43627.50508101852</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>b'RT @Renalpathsoc: Tune in tomorrow!! #RenalPath https://t.co/MKC5wplbGg'</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1136050284776628224</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>43620.97302083333</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>b'RT @GlomCon: Together with The Renal Pathology Society (@Renalpathsoc ), we are thrilled to introduce "Seminars In Nephropathology" a new J\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>31</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1132476149324550144</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>43611.11028935185</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>b'@jale999MI @VijayanMD @WUNephrology Thank you!'</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1127036058993082370</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>43596.09849537037</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>b'RT @SethiRenalPath: Happy and excited about finding EXT1/EXT2 as likely target antigens/biomarkers in secondary (autoimmune) membranous nep\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>90</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1109208097892061186</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>43546.90269675926</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>b'RT @VijayanMD: Jane Stromberg, @Ting2li and rest of the @WUNephrology Wash Ur Kidney team are ready for @NKF Kidney Walk this Sunday, Mar 2\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1106920660478111745</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>43540.59056712963</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>b'RT @VijayanMD: Only 9 more days to go!! Show some love for Team @WUNephrology #WashUrKidneys at the STL @nkf walk, led by our incredible te\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1099061689104900096</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>43518.90393518518</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>b'RT @WUNephrology: Time to show WU Nephrology Pride and Wash Ur Kidneys!  The 2019 NKF Kidney Walk is Almost Here @nkf @NKFCLINICALS @Ting2l\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1070285353184043012</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>43439.49637731481</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>b'RT @WUSTLnews: An abundance of high-sugar, high-salt foods in many American diets and obesity-related health problems such as diabetes are\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>6</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1068639171412148225</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>43434.95378472222</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>b'RT @zalaly: Changes in the US Burden of Chronic Kidney Disease, 2002-2016 in @JAMANetworkOpen @AliHMokdad @Biostayan @BCBowe @Ting2li @WUST\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1063816164596420608</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>43421.64482638889</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>b'Impressive presentation by @DeisCaro! Great overview of multiple myeloma and cast nephropathy. #Nefroigsswashu\xe2\x80\xa6 https://t.co/3BY0Lugr3F'</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1063812016421392384</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>43421.63337962963</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>b'@VijayanMD @DeisCaro @visanpolo Answer on pathology. Beautiful image of cast nephropathy. #Nefroigsswashu https://t.co/ZGAQeCfHsw'</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1063560362254131203</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>43420.93894675926</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>b'Dr Rothstein asks - What\xe2\x80\x99s left to eat for CKD patients?? #nefroIGSSWashU https://t.co/KQEmwoJdwW'</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1063558306357235713</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>43420.93326388889</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>b'Hyperkalemia- pathophysiology, risk factors and management by our @WUNephrology @NephroMaven #nefroIGSSWashU https://t.co/KeCoqMKqdl'</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>6</v>
+      </c>
+      <c r="F111" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1063548825674178560</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>43420.90710648148</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>b'RT @TransplantPulse: Practical advice to patients with HTN from @NephroMaven. Look at nutrition facts. Na should be less than calories  @IS\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1063541601006436352</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>43420.88716435185</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>b'Afternoon session kicks off with an excellent overview of hypertension guidelines by @NephroMaven #nefroIGSSWashU\xe2\x80\xa6 https://t.co/o6Exi8IQne'</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1063539949474144256</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>43420.88261574074</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>b'RT @VijayanMD: Hey @WUNephrology! Guess who we converted to Twitter! We even suggested the handle. Can you think of a better handle than @N\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1063539772147273728</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>43420.88211805555</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>b'RT @Cocamorales1984: Learning with @NephroMaven about hypertension #NefroIGSSWashU https://t.co/5SPVTrE8oA'</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1063533733670780929</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>43420.86546296296</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>b'Lunch at the beautiful Casa Areana convention center in Guatemala City. #Nefroigsswashu https://t.co/gWfZISOAZU'</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1063506234505129984</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>43420.78957175926</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>b'@VijayanMD @DrDanMO @WUSTLmed @WUNephrology @frankjobrien84 Nephrology, Hem/Onc, Cardiology, Neurology, and Gastroe\xe2\x80\xa6 https://t.co/lgNw6sMvuU'</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1063502589722009600</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>43420.77951388889</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>b'The benefits of combined kidney-pancreas transplant.  Another great talk by @TransplantPulse #Nefroigsswashu\xe2\x80\xa6 https://t.co/tN2lmtUG2f'</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1063491087736741894</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>43420.74777777777</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>b'Wonderful review of AKI by @VijayanMD. Prevelance of community acquired AKI worldwide and in Guatemala.\xe2\x80\xa6 https://t.co/xmgsOdP25M'</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1056063453146693632</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>43400.25141203704</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>b'RT @zalaly: .@BCBowe oral presentation on changes in burden of #CKD in the United States between 2002 and 2016 #kidneyWk @Biostayan @Ting2l\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1055511042967592960</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>43398.72704861111</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>b'RT @zalaly: .@Biostayan @BCBowe #KidneyWk global burden of #CKD https://t.co/lg0EgY7rnk'</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1055275795072004101</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>43398.07789351852</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>b'RT @KidneyInCVD: Meet KCVD leadership committee! #joinKCVD Brainstorming: done https://t.co/DVoMWCnBo7'</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1055275627278872576</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>43398.07743055555</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>b'RT @KidneyInCVD: Pre-ASN KCVD symposium will start in 2 hours in Grand Hayatt, Harbor Ballroom B! Please join us (there will be food and a\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1032747406654414848</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>43335.91137731481</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>b'RT @WUSTLpubhealth: Congrats to faculty scholars Dr. Ziyad Al-Aly and Dr. Patrick Fowler who received funding awards in response to the Ins\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1025419562827825153</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>43315.69038194444</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>b'RT @zalaly: T1: New paper: We describe the change in the epidemiology of chronic kidney disease #CKD over the last quarter century at the g\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>10</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1013182591023943680</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>43281.92277777778</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>b'RT @theipaper: Revealed: 15,000 cases of diabetes a year caused by air pollution\n\nhttps://t.co/ZMcUv58aEq'</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1013160050385412096</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>43281.8605787037</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>b'RT @zalaly: 2) we a) define the link of #airpollution and #diabetes b) synthesize all available evidence to estimate risk of #diabetes acro\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1013159959914340352</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>43281.86032407408</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>b'RT @zalaly: 1) Our latest work in @TheLancetPlanet using @EPA @NASA @IHME_UW #GBD data, we describe the Global Burden of #diabetes attribut\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>18</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1013159582775070724</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>43281.85928240741</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>b'RT @cnnhealth: Air pollution linked to diabetes, new study says https://t.co/zOfcoCej7X https://t.co/2rNhyK9GNH'</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>22</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1011805105262333953</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>43278.12164351852</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>b'RT @SethiRenalPath: Unusual presentation of AL kappa light chain amyloidosis with MASSIVE vascular involvement (white arrows) and no inters\xe2\x80\xa6'</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>26</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>963904739766407168</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>43145.94181712963</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>b'Very happy to be co-captain of Team Wash Ur Kidneys for @nkf STL #kidneywalk 2018. Thank you to @VijayanMD\xe2\x80\xa6 https://t.co/rJtWidewtZ'</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Ting2li</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>911275758764609537</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>43000.71349537037</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>b'RT @zalaly: The latest from our group: air pollution and the kidney by the extraordinary @BCBowe @Biostayan @Ting2li https://t.co/mUdNqrSt0p'</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
